--- a/OUTPUT-FILES/NORMS/TODC_adult_10.28.21_for norms/riw_sum-adult-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_adult_10.28.21_for norms/riw_sum-adult-raw-ss-lookup-tabbed-age.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>62</v>
@@ -384,7 +384,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>62</v>
@@ -392,7 +392,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>63</v>
@@ -400,7 +400,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>63</v>
@@ -408,7 +408,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>63</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>63</v>
@@ -424,7 +424,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>64</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>64</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>64</v>
@@ -448,15 +448,15 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>65</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>65</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>65</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>66</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>66</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>66</v>
@@ -504,15 +504,15 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>67</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>67</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>67</v>
@@ -536,15 +536,15 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>68</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>68</v>
@@ -560,15 +560,15 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>69</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>69</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>69</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>70</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>70</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>70</v>
@@ -616,15 +616,15 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>71</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>71</v>
@@ -640,15 +640,15 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>72</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>72</v>
@@ -664,15 +664,15 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>73</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>73</v>
@@ -688,23 +688,23 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>74</v>
@@ -712,23 +712,23 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>75</v>
@@ -736,23 +736,23 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>76</v>
@@ -760,23 +760,23 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>77</v>
@@ -784,23 +784,23 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>78</v>
@@ -808,15 +808,15 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>79</v>
@@ -824,23 +824,23 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>80</v>
@@ -848,39 +848,39 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>82</v>
@@ -888,290 +888,298 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>109</v>
+      <c r="B102">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1189,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1201,95 +1209,95 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -1297,15 +1305,15 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>51</v>
@@ -1313,15 +1321,15 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>52</v>
@@ -1329,551 +1337,551 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>88</v>
@@ -1881,31 +1889,31 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>92</v>
@@ -1913,7 +1921,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>93</v>
@@ -1921,7 +1929,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>94</v>
@@ -1929,7 +1937,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>95</v>
@@ -1937,7 +1945,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>96</v>
@@ -1945,58 +1953,66 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>113</v>
+      <c r="B102">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2006,7 +2022,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2026,391 +2042,391 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>52</v>
@@ -2418,87 +2434,87 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -2506,7 +2522,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -2514,7 +2530,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -2522,231 +2538,231 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
         <v>63</v>
-      </c>
-      <c r="B64">
-        <v>62</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
         <v>64</v>
-      </c>
-      <c r="B65">
-        <v>63</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
         <v>65</v>
-      </c>
-      <c r="B66">
-        <v>64</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
         <v>66</v>
-      </c>
-      <c r="B67">
-        <v>65</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
         <v>67</v>
-      </c>
-      <c r="B68">
-        <v>65</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
         <v>68</v>
-      </c>
-      <c r="B69">
-        <v>66</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
         <v>69</v>
-      </c>
-      <c r="B70">
-        <v>67</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
         <v>70</v>
-      </c>
-      <c r="B71">
-        <v>68</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
         <v>71</v>
-      </c>
-      <c r="B72">
-        <v>69</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
         <v>72</v>
-      </c>
-      <c r="B73">
-        <v>70</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
         <v>73</v>
-      </c>
-      <c r="B74">
-        <v>70</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
         <v>74</v>
-      </c>
-      <c r="B75">
-        <v>71</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
         <v>75</v>
-      </c>
-      <c r="B76">
-        <v>72</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
         <v>76</v>
-      </c>
-      <c r="B77">
-        <v>73</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
         <v>77</v>
-      </c>
-      <c r="B78">
-        <v>74</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
         <v>88</v>
-      </c>
-      <c r="B89">
-        <v>86</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
         <v>89</v>
-      </c>
-      <c r="B90">
-        <v>88</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
         <v>90</v>
-      </c>
-      <c r="B91">
-        <v>89</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -2754,7 +2770,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>93</v>
@@ -2762,66 +2778,74 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>117</v>
+      <c r="B102">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +2855,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2851,439 +2875,439 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>59</v>
@@ -3291,362 +3315,370 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
         <v>90</v>
-      </c>
-      <c r="B91">
-        <v>93</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
         <v>91</v>
-      </c>
-      <c r="B92">
-        <v>94</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>118</v>
+      <c r="B102">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3656,7 +3688,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3676,295 +3708,295 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>62</v>
@@ -3972,7 +4004,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>62</v>
@@ -3980,498 +4012,506 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
         <v>83</v>
-      </c>
-      <c r="B84">
-        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
         <v>84</v>
-      </c>
-      <c r="B85">
-        <v>92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
         <v>85</v>
-      </c>
-      <c r="B86">
-        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
         <v>86</v>
-      </c>
-      <c r="B87">
-        <v>94</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>118</v>
+      <c r="B102">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4521,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4501,802 +4541,810 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>118</v>
+      <c r="B102">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/OUTPUT-FILES/NORMS/TODC_adult_10.28.21_for norms/riw_sum-adult-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_adult_10.28.21_for norms/riw_sum-adult-raw-ss-lookup-tabbed-age.xlsx
@@ -379,7 +379,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +387,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +403,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -411,7 +411,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -419,7 +419,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -427,7 +427,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -435,7 +435,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -443,7 +443,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +451,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +459,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +467,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -475,7 +475,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -483,7 +483,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -491,7 +491,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -499,7 +499,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -507,7 +507,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -515,7 +515,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -523,7 +523,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -531,7 +531,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -539,7 +539,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -547,7 +547,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -555,7 +555,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
@@ -563,7 +563,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -571,7 +571,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
@@ -579,7 +579,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
@@ -587,7 +587,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -595,7 +595,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -603,7 +603,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
@@ -611,7 +611,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
@@ -619,7 +619,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
@@ -627,7 +627,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
@@ -635,7 +635,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
@@ -643,7 +643,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
@@ -651,7 +651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
@@ -659,7 +659,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38">
@@ -667,7 +667,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39">
@@ -675,7 +675,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40">
@@ -683,7 +683,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41">
@@ -691,7 +691,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
@@ -699,7 +699,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
@@ -707,7 +707,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44">
@@ -715,7 +715,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45">
@@ -723,7 +723,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
@@ -731,7 +731,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
@@ -739,7 +739,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48">
@@ -747,7 +747,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49">
@@ -755,7 +755,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50">
@@ -763,7 +763,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
@@ -771,7 +771,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52">
@@ -779,7 +779,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53">
@@ -787,7 +787,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
@@ -795,7 +795,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
@@ -803,7 +803,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
@@ -811,7 +811,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
@@ -819,7 +819,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
@@ -827,7 +827,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59">
@@ -835,7 +835,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
@@ -843,7 +843,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
@@ -851,7 +851,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62">
@@ -859,7 +859,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
@@ -867,7 +867,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
@@ -875,7 +875,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
@@ -883,7 +883,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
@@ -891,7 +891,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
@@ -899,7 +899,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
@@ -907,7 +907,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
@@ -915,7 +915,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
@@ -923,7 +923,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71">
@@ -931,7 +931,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72">
@@ -939,7 +939,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73">
@@ -947,7 +947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74">
@@ -955,7 +955,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75">
@@ -963,7 +963,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
@@ -971,7 +971,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
@@ -979,7 +979,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78">
@@ -995,7 +995,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80">
@@ -1035,7 +1035,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
@@ -1043,7 +1043,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
@@ -1051,7 +1051,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
@@ -1059,7 +1059,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
@@ -1067,7 +1067,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89">
@@ -1075,7 +1075,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
@@ -1083,7 +1083,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
@@ -1091,7 +1091,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92">
@@ -1099,7 +1099,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
@@ -1107,7 +1107,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94">
@@ -1115,7 +1115,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95">
@@ -1123,7 +1123,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96">
@@ -1131,7 +1131,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97">
@@ -1139,7 +1139,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98">
@@ -1147,7 +1147,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99">
@@ -1155,7 +1155,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100">
@@ -1163,7 +1163,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101">
@@ -1171,7 +1171,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102">
@@ -1179,7 +1179,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1228,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -1236,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -1244,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -1260,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -1268,7 +1268,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -1276,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1284,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1292,7 +1292,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -1300,7 +1300,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -1308,7 +1308,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -1316,7 +1316,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -1324,7 +1324,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -1332,7 +1332,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -1340,7 +1340,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -1348,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -1356,7 +1356,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -1364,7 +1364,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -1372,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -1380,7 +1380,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
@@ -1388,7 +1388,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1396,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -1404,7 +1404,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -1412,7 +1412,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
@@ -1420,7 +1420,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29">
@@ -1428,7 +1428,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -1436,7 +1436,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -1444,7 +1444,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
@@ -1452,7 +1452,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
@@ -1460,7 +1460,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
@@ -1468,7 +1468,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1476,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
@@ -1484,7 +1484,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
@@ -1492,7 +1492,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1500,7 +1500,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
@@ -1508,7 +1508,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -1516,7 +1516,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41">
@@ -1524,7 +1524,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42">
@@ -1532,7 +1532,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43">
@@ -1540,7 +1540,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44">
@@ -1548,7 +1548,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
@@ -1556,7 +1556,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
@@ -1564,7 +1564,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
@@ -1572,7 +1572,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -1580,7 +1580,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -1588,7 +1588,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -1596,7 +1596,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
@@ -1604,7 +1604,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
@@ -1612,7 +1612,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
@@ -1620,7 +1620,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54">
@@ -1628,7 +1628,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
@@ -1636,7 +1636,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56">
@@ -1644,7 +1644,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57">
@@ -1652,7 +1652,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
@@ -1660,7 +1660,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59">
@@ -1668,7 +1668,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60">
@@ -1676,7 +1676,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61">
@@ -1684,7 +1684,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
@@ -1692,7 +1692,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
@@ -1700,7 +1700,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64">
@@ -1708,7 +1708,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
@@ -1716,7 +1716,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
@@ -1724,7 +1724,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
@@ -1732,7 +1732,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
@@ -1740,7 +1740,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
@@ -1748,7 +1748,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
@@ -1756,7 +1756,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
@@ -1764,7 +1764,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
@@ -1772,7 +1772,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
@@ -1780,7 +1780,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74">
@@ -1788,7 +1788,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75">
@@ -1796,7 +1796,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76">
@@ -1804,7 +1804,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77">
@@ -1812,7 +1812,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78">
@@ -1820,7 +1820,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79">
@@ -1828,7 +1828,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80">
@@ -1836,7 +1836,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
@@ -1844,7 +1844,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
@@ -1852,7 +1852,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83">
@@ -1860,7 +1860,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85">
@@ -1876,7 +1876,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86">
@@ -1884,7 +1884,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
@@ -1892,7 +1892,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
@@ -1900,7 +1900,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89">
@@ -1908,7 +1908,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
@@ -1916,7 +1916,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91">
@@ -1924,7 +1924,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
@@ -1932,7 +1932,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93">
@@ -1940,7 +1940,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
@@ -1948,7 +1948,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95">
@@ -1956,7 +1956,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
@@ -1964,7 +1964,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97">
@@ -1980,7 +1980,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
@@ -1988,7 +1988,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100">
@@ -1996,7 +1996,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
@@ -2004,7 +2004,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102">
@@ -2012,7 +2012,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2077,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -2085,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -2093,7 +2093,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -2101,7 +2101,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -2109,7 +2109,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -2117,7 +2117,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -2125,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2133,7 +2133,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2141,7 +2141,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2149,7 +2149,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -2157,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -2165,7 +2165,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -2173,7 +2173,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -2181,7 +2181,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
@@ -2189,7 +2189,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -2197,7 +2197,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -2205,7 +2205,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
@@ -2213,7 +2213,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
@@ -2221,7 +2221,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -2229,7 +2229,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
@@ -2237,7 +2237,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -2245,7 +2245,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -2253,7 +2253,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -2261,7 +2261,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -2269,7 +2269,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -2277,7 +2277,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
@@ -2285,7 +2285,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
@@ -2293,7 +2293,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
@@ -2301,7 +2301,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
@@ -2309,7 +2309,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
@@ -2317,7 +2317,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37">
@@ -2325,7 +2325,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -2333,7 +2333,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39">
@@ -2341,7 +2341,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
@@ -2349,7 +2349,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41">
@@ -2357,7 +2357,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -2365,7 +2365,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
@@ -2373,7 +2373,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44">
@@ -2381,7 +2381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45">
@@ -2389,7 +2389,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
@@ -2397,7 +2397,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47">
@@ -2405,7 +2405,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48">
@@ -2413,7 +2413,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
@@ -2421,7 +2421,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
@@ -2429,7 +2429,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
@@ -2437,7 +2437,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -2445,7 +2445,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
@@ -2453,7 +2453,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -2461,7 +2461,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55">
@@ -2469,7 +2469,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
@@ -2477,7 +2477,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57">
@@ -2485,7 +2485,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58">
@@ -2493,7 +2493,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59">
@@ -2501,7 +2501,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
@@ -2509,7 +2509,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
@@ -2517,7 +2517,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
@@ -2525,7 +2525,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63">
@@ -2533,7 +2533,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
@@ -2541,7 +2541,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
@@ -2549,7 +2549,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
@@ -2557,7 +2557,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
@@ -2565,7 +2565,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
@@ -2573,7 +2573,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
@@ -2581,7 +2581,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
@@ -2589,7 +2589,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
@@ -2597,7 +2597,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
@@ -2605,7 +2605,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
@@ -2613,7 +2613,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -2621,7 +2621,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
@@ -2629,7 +2629,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
@@ -2637,7 +2637,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
@@ -2645,7 +2645,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78">
@@ -2653,7 +2653,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79">
@@ -2661,7 +2661,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80">
@@ -2669,7 +2669,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
@@ -2677,7 +2677,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82">
@@ -2685,7 +2685,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83">
@@ -2693,7 +2693,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84">
@@ -2701,7 +2701,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85">
@@ -2709,7 +2709,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86">
@@ -2717,7 +2717,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87">
@@ -2725,7 +2725,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88">
@@ -2733,7 +2733,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89">
@@ -2741,7 +2741,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
@@ -2749,7 +2749,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91">
@@ -2757,7 +2757,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92">
@@ -2765,7 +2765,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93">
@@ -2789,7 +2789,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96">
@@ -2797,7 +2797,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
@@ -2805,7 +2805,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98">
@@ -2813,7 +2813,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99">
@@ -2821,7 +2821,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100">
@@ -2829,7 +2829,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
@@ -2837,7 +2837,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102">
@@ -2845,7 +2845,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -2894,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -2902,7 +2902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -2910,7 +2910,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -2918,7 +2918,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -2926,7 +2926,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -2934,7 +2934,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -2942,7 +2942,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -2950,7 +2950,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -2958,7 +2958,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -2966,7 +2966,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2974,7 +2974,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2982,7 +2982,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -2990,7 +2990,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -2998,7 +2998,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -3006,7 +3006,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -3014,7 +3014,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
@@ -3022,7 +3022,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -3030,7 +3030,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
@@ -3038,7 +3038,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
@@ -3046,7 +3046,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
@@ -3078,7 +3078,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -3086,7 +3086,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -3094,7 +3094,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -3102,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -3110,7 +3110,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
@@ -3118,7 +3118,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
@@ -3134,7 +3134,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
@@ -3142,7 +3142,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
@@ -3150,7 +3150,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37">
@@ -3158,7 +3158,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -3166,7 +3166,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39">
@@ -3174,7 +3174,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
@@ -3182,7 +3182,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
@@ -3190,7 +3190,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -3198,7 +3198,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
@@ -3206,7 +3206,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44">
@@ -3214,7 +3214,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45">
@@ -3222,7 +3222,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
@@ -3230,7 +3230,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47">
@@ -3238,7 +3238,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48">
@@ -3246,7 +3246,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
@@ -3254,7 +3254,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
@@ -3262,7 +3262,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
@@ -3270,7 +3270,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -3278,7 +3278,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
@@ -3286,7 +3286,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -3294,7 +3294,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55">
@@ -3302,7 +3302,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
@@ -3310,7 +3310,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57">
@@ -3318,7 +3318,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58">
@@ -3326,7 +3326,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59">
@@ -3334,7 +3334,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
@@ -3342,7 +3342,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
@@ -3350,7 +3350,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62">
@@ -3358,7 +3358,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63">
@@ -3366,7 +3366,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
@@ -3374,7 +3374,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
@@ -3382,7 +3382,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
@@ -3390,7 +3390,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
@@ -3398,7 +3398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
@@ -3406,7 +3406,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
@@ -3414,7 +3414,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
@@ -3422,7 +3422,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
@@ -3430,7 +3430,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
@@ -3438,7 +3438,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
@@ -3446,7 +3446,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -3454,7 +3454,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
@@ -3462,7 +3462,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
@@ -3470,7 +3470,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
@@ -3478,7 +3478,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78">
@@ -3486,7 +3486,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79">
@@ -3494,7 +3494,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80">
@@ -3502,7 +3502,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
@@ -3510,7 +3510,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
@@ -3518,7 +3518,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83">
@@ -3526,7 +3526,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84">
@@ -3534,7 +3534,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85">
@@ -3542,7 +3542,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86">
@@ -3550,7 +3550,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87">
@@ -3558,7 +3558,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
@@ -3566,7 +3566,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89">
@@ -3574,7 +3574,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
@@ -3582,7 +3582,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91">
@@ -3590,7 +3590,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92">
@@ -3598,7 +3598,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93">
@@ -3622,7 +3622,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96">
@@ -3630,7 +3630,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
@@ -3638,7 +3638,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98">
@@ -3646,7 +3646,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99">
@@ -3654,7 +3654,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100">
@@ -3662,7 +3662,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
@@ -3670,7 +3670,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
@@ -3678,7 +3678,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -3719,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -3727,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -3735,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -3743,7 +3743,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -3751,7 +3751,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -3759,7 +3759,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -3767,7 +3767,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -3775,7 +3775,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -3783,7 +3783,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -3791,7 +3791,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -3799,7 +3799,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -3807,7 +3807,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -3815,7 +3815,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -3823,7 +3823,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -3831,7 +3831,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -3839,7 +3839,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -3847,7 +3847,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
@@ -3855,7 +3855,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -3863,7 +3863,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -3871,7 +3871,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
@@ -3879,7 +3879,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
@@ -3887,7 +3887,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -3895,7 +3895,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
@@ -3903,7 +3903,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -3911,7 +3911,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -3919,7 +3919,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -3927,7 +3927,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -3935,7 +3935,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -3943,7 +3943,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
@@ -3975,7 +3975,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
@@ -3983,7 +3983,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37">
@@ -3991,7 +3991,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -3999,7 +3999,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39">
@@ -4007,7 +4007,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
@@ -4015,7 +4015,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41">
@@ -4023,7 +4023,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -4031,7 +4031,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43">
@@ -4039,7 +4039,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44">
@@ -4047,7 +4047,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
@@ -4063,7 +4063,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47">
@@ -4071,7 +4071,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
@@ -4079,7 +4079,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
@@ -4087,7 +4087,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
@@ -4095,7 +4095,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
@@ -4103,7 +4103,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -4111,7 +4111,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
@@ -4119,7 +4119,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -4127,7 +4127,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
@@ -4135,7 +4135,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
@@ -4143,7 +4143,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57">
@@ -4151,7 +4151,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58">
@@ -4159,7 +4159,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59">
@@ -4167,7 +4167,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
@@ -4175,7 +4175,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
@@ -4183,7 +4183,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
@@ -4191,7 +4191,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63">
@@ -4199,7 +4199,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
@@ -4207,7 +4207,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
@@ -4215,7 +4215,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
@@ -4223,7 +4223,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
@@ -4231,7 +4231,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
@@ -4239,7 +4239,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
@@ -4247,7 +4247,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
@@ -4255,7 +4255,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
@@ -4263,7 +4263,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
@@ -4271,7 +4271,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
@@ -4279,7 +4279,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -4287,7 +4287,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
@@ -4295,7 +4295,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
@@ -4303,7 +4303,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
@@ -4311,7 +4311,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78">
@@ -4319,7 +4319,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79">
@@ -4327,7 +4327,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
@@ -4335,7 +4335,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
@@ -4343,7 +4343,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82">
@@ -4351,7 +4351,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83">
@@ -4359,7 +4359,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84">
@@ -4367,7 +4367,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85">
@@ -4375,7 +4375,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86">
@@ -4383,7 +4383,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87">
@@ -4391,7 +4391,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88">
@@ -4399,7 +4399,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89">
@@ -4407,7 +4407,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
@@ -4415,7 +4415,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91">
@@ -4439,7 +4439,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94">
@@ -4447,7 +4447,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95">
@@ -4455,7 +4455,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96">
@@ -4463,7 +4463,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
@@ -4471,7 +4471,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98">
@@ -4479,7 +4479,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99">
@@ -4487,7 +4487,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
@@ -4495,7 +4495,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
@@ -4503,7 +4503,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102">
@@ -4511,7 +4511,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -4560,7 +4560,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -4568,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -4576,7 +4576,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -4584,7 +4584,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -4592,7 +4592,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -4600,7 +4600,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -4608,7 +4608,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -4616,7 +4616,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -4624,7 +4624,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -4632,7 +4632,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -4640,7 +4640,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -4648,7 +4648,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -4656,7 +4656,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -4664,7 +4664,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -4672,7 +4672,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -4680,7 +4680,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -4712,7 +4712,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -4720,7 +4720,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -4728,7 +4728,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -4736,7 +4736,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
@@ -4744,7 +4744,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
@@ -4752,7 +4752,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -4760,7 +4760,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
@@ -4768,7 +4768,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -4776,7 +4776,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
@@ -4784,7 +4784,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
@@ -4792,7 +4792,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
@@ -4800,7 +4800,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
@@ -4808,7 +4808,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
@@ -4816,7 +4816,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -4824,7 +4824,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -4832,7 +4832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
@@ -4840,7 +4840,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
@@ -4848,7 +4848,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41">
@@ -4856,7 +4856,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42">
@@ -4864,7 +4864,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43">
@@ -4872,7 +4872,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44">
@@ -4880,7 +4880,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45">
@@ -4888,7 +4888,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
@@ -4896,7 +4896,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
@@ -4904,7 +4904,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -4912,7 +4912,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -4920,7 +4920,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
@@ -4928,7 +4928,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
@@ -4936,7 +4936,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52">
@@ -4944,7 +4944,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
@@ -4952,7 +4952,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
@@ -4960,7 +4960,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
@@ -4968,7 +4968,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56">
@@ -4976,7 +4976,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57">
@@ -4984,7 +4984,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
@@ -4992,7 +4992,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
@@ -5000,7 +5000,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
@@ -5008,7 +5008,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
@@ -5016,7 +5016,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62">
@@ -5024,7 +5024,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63">
@@ -5032,7 +5032,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
@@ -5040,7 +5040,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
@@ -5048,7 +5048,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
@@ -5056,7 +5056,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
@@ -5064,7 +5064,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
@@ -5072,7 +5072,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
@@ -5080,7 +5080,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
@@ -5088,7 +5088,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
@@ -5096,7 +5096,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
@@ -5104,7 +5104,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
@@ -5112,7 +5112,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74">
@@ -5120,7 +5120,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75">
@@ -5136,7 +5136,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77">
@@ -5168,7 +5168,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81">
@@ -5192,7 +5192,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
@@ -5200,7 +5200,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85">
@@ -5208,7 +5208,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86">
@@ -5216,7 +5216,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87">
@@ -5232,7 +5232,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89">
@@ -5240,7 +5240,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
@@ -5248,7 +5248,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
@@ -5256,7 +5256,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92">
@@ -5264,7 +5264,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
@@ -5272,7 +5272,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94">
@@ -5280,7 +5280,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
@@ -5288,7 +5288,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
@@ -5296,7 +5296,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
@@ -5304,7 +5304,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
@@ -5312,7 +5312,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
@@ -5320,7 +5320,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
@@ -5328,7 +5328,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
@@ -5336,7 +5336,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102">
@@ -5344,7 +5344,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
